--- a/REB/TEES Instrument Testing Survey/Instrument Survey Results.xlsx
+++ b/REB/TEES Instrument Testing Survey/Instrument Survey Results.xlsx
@@ -307,7 +307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -322,13 +322,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FF8E34F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor rgb="FF9737FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9597F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -364,17 +370,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF8E34F1"/>
+      <color rgb="FF9597F1"/>
+      <color rgb="FF9737FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -648,22 +664,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="AI3" sqref="AI1:AI1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="10" width="10.83203125" style="1"/>
-    <col min="11" max="11" width="32.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="32.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="18" width="10.83203125" style="1"/>
-    <col min="19" max="19" width="26.83203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="26.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="20" max="24" width="10.83203125" style="1"/>
-    <col min="25" max="25" width="16.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="16.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="26" max="30" width="10.83203125" style="1"/>
-    <col min="31" max="31" width="24.6640625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="24.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="32" max="34" width="10.83203125" style="1"/>
-    <col min="35" max="35" width="21.5" style="1" customWidth="1"/>
+    <col min="35" max="35" width="21.5" style="1" hidden="1" customWidth="1"/>
     <col min="36" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -673,34 +689,34 @@
       </c>
     </row>
     <row r="2" spans="1:39" ht="112" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="10" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="M2" s="7"/>
@@ -710,15 +726,15 @@
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="7"/>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="10" t="s">
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="AA2" s="7"/>
@@ -726,29 +742,29 @@
       <c r="AC2" s="7"/>
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
-      <c r="AF2" s="8" t="s">
+      <c r="AF2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="10" t="s">
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="9" t="s">
         <v>32</v>
       </c>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:39" ht="160" x14ac:dyDescent="0.2">
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="L3" s="7" t="s">
@@ -775,22 +791,22 @@
       <c r="S3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="Y3" s="9" t="s">
+      <c r="Y3" s="11" t="s">
         <v>48</v>
       </c>
       <c r="Z3" s="7" t="s">
@@ -811,16 +827,16 @@
       <c r="AE3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AF3" s="9" t="s">
+      <c r="AF3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AG3" s="9" t="s">
+      <c r="AG3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AH3" s="9" t="s">
+      <c r="AH3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AI3" s="9" t="s">
+      <c r="AI3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="AJ3" s="7" t="s">
